--- a/modules/segment/test_data/test_segment_config.xlsx
+++ b/modules/segment/test_data/test_segment_config.xlsx
@@ -424,12 +424,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>parameter</t>
+          <t>Setting</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>value</t>
+          <t>Value</t>
         </is>
       </c>
     </row>

--- a/modules/segment/test_data/test_segment_config.xlsx
+++ b/modules/segment/test_data/test_segment_config.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,108 +600,192 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>k_selection_metrics</t>
+          <t>outlier_detection</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>silhouette,elbow</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>output_folder</t>
+          <t>outlier_method</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>modules/segment/test_data/output/</t>
+          <t>zscore</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>output_prefix</t>
+          <t>outlier_threshold</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>test_</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>create_dated_folder</t>
+          <t>outlier_min_vars</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>segment_names</t>
+          <t>outlier_handling</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>auto</t>
+          <t>flag</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>save_model</t>
+          <t>outlier_alpha</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>0.001</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>project_name</t>
+          <t>k_selection_metrics</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Test Segmentation</t>
+          <t>silhouette,elbow</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>analyst_name</t>
+          <t>output_folder</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Test User</t>
+          <t>modules/segment/test_data/output/</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>output_prefix</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>test_</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>create_dated_folder</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>segment_names</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>save_model</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>project_name</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Test Segmentation</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>analyst_name</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Test User</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>description</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Testing segmentation module with synthetic data</t>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Testing segmentation module with outlier detection</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>question_labels_file</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>modules/segment/test_data/test_question_labels.xlsx</t>
         </is>
       </c>
     </row>
